--- a/Checklists & testcases/tritonshoes.ru/Наборы текст-кейсов tritonshoes.ru.xlsx
+++ b/Checklists & testcases/tritonshoes.ru/Наборы текст-кейсов tritonshoes.ru.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Корзина" sheetId="3" r:id="rId1"/>
     <sheet name="Оформление заказа" sheetId="4" r:id="rId2"/>
     <sheet name="Доставка" sheetId="6" r:id="rId3"/>
     <sheet name="Тестовый прогон" sheetId="7" r:id="rId4"/>
+    <sheet name="Тест-кейс Корзина" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="188">
   <si>
     <t>Модуль</t>
   </si>
@@ -568,6 +569,60 @@
   </si>
   <si>
     <t>Провалено</t>
+  </si>
+  <si>
+    <t>id теста</t>
+  </si>
+  <si>
+    <t>заголовок</t>
+  </si>
+  <si>
+    <t>приоритет</t>
+  </si>
+  <si>
+    <t>модуль</t>
+  </si>
+  <si>
+    <t>шаги</t>
+  </si>
+  <si>
+    <t>ожидаемый результат</t>
+  </si>
+  <si>
+    <t>результат</t>
+  </si>
+  <si>
+    <t>К-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ввод отрицательной суммы заказа</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>1.Число отображается в корзине</t>
+  </si>
+  <si>
+    <t>2. Нажать кнопку "+"</t>
+  </si>
+  <si>
+    <t>1. Ввести в поле "Количество" отрицательное число &lt; -2</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>Поле "Количество"</t>
+  </si>
+  <si>
+    <t>Положить товар корзину</t>
+  </si>
+  <si>
+    <t>Сумма заказа становится отрицательной</t>
+  </si>
+  <si>
+    <t>2. Значение в поле сбрасывается до последнего корректного</t>
   </si>
 </sst>
 </file>
@@ -754,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -775,19 +830,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -807,6 +850,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -816,10 +875,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1381,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1512,7 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="2">
@@ -1565,7 +1647,7 @@
       <c r="E18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1745,7 +1827,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1765,7 +1847,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1783,59 +1865,59 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1853,59 +1935,59 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="19" t="s">
+      <c r="C36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="21"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1923,59 +2005,59 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="C39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="21"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
@@ -1993,59 +2075,59 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="19" t="s">
+      <c r="C42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="21"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
@@ -2063,90 +2145,90 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="25"/>
+      <c r="C45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27" t="s">
+      <c r="G46" s="23"/>
+      <c r="H46" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27" t="s">
+      <c r="I46" s="23"/>
+      <c r="J46" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27" t="s">
+      <c r="K46" s="23"/>
+      <c r="L46" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2250,16 +2332,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="24"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="24"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2277,7 +2359,7 @@
       <c r="E59" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2346,7 +2428,7 @@
       <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="24">
         <v>10</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -2484,28 +2566,28 @@
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H71" s="27" t="s">
+      <c r="H71" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="27" t="s">
+      <c r="I71" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2554,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A21"/>
     </sheetView>
   </sheetViews>
@@ -2782,10 +2864,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2798,34 +2880,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2834,56 +2916,56 @@
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="29">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="2" t="s">
         <v>104</v>
       </c>
@@ -2892,7 +2974,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2" t="s">
         <v>105</v>
       </c>
@@ -2901,7 +2983,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2912,7 +2994,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="2" t="s">
         <v>107</v>
       </c>
@@ -2921,7 +3003,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2932,7 +3014,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +3023,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2950,7 +3032,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2959,7 +3041,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +3050,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2979,7 +3061,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
@@ -2988,7 +3070,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
@@ -2997,7 +3079,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
@@ -3006,7 +3088,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
@@ -3015,7 +3097,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
@@ -3024,7 +3106,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
@@ -3033,7 +3115,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3044,7 +3126,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="7" t="s">
         <v>112</v>
       </c>
@@ -3053,7 +3135,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="7" t="s">
         <v>113</v>
       </c>
@@ -3062,7 +3144,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="7" t="s">
         <v>114</v>
       </c>
@@ -3071,7 +3153,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="7" t="s">
         <v>115</v>
       </c>
@@ -3080,7 +3162,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
         <v>116</v>
       </c>
@@ -3089,7 +3171,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
@@ -3098,7 +3180,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3109,7 +3191,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
@@ -3118,7 +3200,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
@@ -3127,7 +3209,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
@@ -3136,7 +3218,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3147,7 +3229,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="7" t="s">
         <v>81</v>
       </c>
@@ -3156,7 +3238,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="7" t="s">
         <v>82</v>
       </c>
@@ -3165,7 +3247,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="7" t="s">
         <v>83</v>
       </c>
@@ -3174,7 +3256,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3185,7 +3267,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="7" t="s">
         <v>86</v>
       </c>
@@ -3194,7 +3276,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="7" t="s">
         <v>87</v>
       </c>
@@ -3203,7 +3285,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="7" t="s">
         <v>88</v>
       </c>
@@ -3212,7 +3294,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="7" t="s">
         <v>89</v>
       </c>
@@ -3221,7 +3303,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="7" t="s">
         <v>90</v>
       </c>
@@ -3230,7 +3312,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="7" t="s">
         <v>91</v>
       </c>
@@ -3239,7 +3321,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="7" t="s">
         <v>92</v>
       </c>
@@ -3248,7 +3330,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="34" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3259,7 +3341,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
@@ -3268,7 +3350,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="2" t="s">
         <v>133</v>
       </c>
@@ -3277,7 +3359,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
@@ -3286,7 +3368,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="2" t="s">
         <v>136</v>
       </c>
@@ -3295,7 +3377,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="2" t="s">
         <v>137</v>
       </c>
@@ -3304,7 +3386,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="2" t="s">
         <v>138</v>
       </c>
@@ -3314,17 +3396,129 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Checklists & testcases/tritonshoes.ru/Наборы текст-кейсов tritonshoes.ru.xlsx
+++ b/Checklists & testcases/tritonshoes.ru/Наборы текст-кейсов tritonshoes.ru.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Корзина" sheetId="3" r:id="rId1"/>
-    <sheet name="Оформление заказа" sheetId="4" r:id="rId2"/>
+    <sheet name="Оформление заказа" sheetId="4" r:id="rId1"/>
+    <sheet name="Корзина" sheetId="3" r:id="rId2"/>
     <sheet name="Доставка" sheetId="6" r:id="rId3"/>
     <sheet name="Тестовый прогон" sheetId="7" r:id="rId4"/>
     <sheet name="Тест-кейс Корзина" sheetId="8" r:id="rId5"/>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="188">
-  <si>
-    <t>Модуль</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="187">
   <si>
     <t>Подмодуль</t>
   </si>
@@ -854,6 +851,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,12 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1182,288 +1179,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -1479,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,39 +1205,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
@@ -1527,7 +1245,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -1540,19 +1258,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3">
         <v>9</v>
@@ -1560,13 +1278,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
         <v>101</v>
@@ -1580,7 +1298,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1590,7 +1308,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1600,7 +1318,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1610,7 +1328,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1628,213 +1346,213 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>101</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>56</v>
+      <c r="A31" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="10"/>
@@ -1847,13 +1565,13 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="2"/>
@@ -1865,48 +1583,48 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>57</v>
+      <c r="A34" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="19"/>
@@ -1917,15 +1635,15 @@
       <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="2"/>
@@ -1935,50 +1653,50 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="16"/>
       <c r="G36" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>163</v>
+      <c r="A37" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
       <c r="F37" s="17"/>
       <c r="G37" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="19"/>
@@ -1987,9 +1705,9 @@
       <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1997,7 +1715,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
       <c r="H38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="2"/>
@@ -2005,43 +1723,43 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="16"/>
       <c r="I39" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>164</v>
+      <c r="A40" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -2050,16 +1768,16 @@
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="I40" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="19"/>
       <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2069,49 +1787,49 @@
       <c r="H41" s="2"/>
       <c r="I41" s="10"/>
       <c r="J41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="16"/>
       <c r="K42" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>165</v>
+      <c r="A43" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2122,14 +1840,14 @@
       <c r="I43" s="19"/>
       <c r="J43" s="17"/>
       <c r="K43" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2141,194 +1859,194 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
       <c r="L44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" s="22"/>
       <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="23"/>
       <c r="H46" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K46" s="23"/>
       <c r="L46" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2">
         <v>100</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3">
         <v>101</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,7 +2054,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" s="20"/>
     </row>
@@ -2345,279 +2063,279 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2">
         <v>10</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
         <v>9</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3">
         <v>11</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="24">
         <v>10</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="D71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2629,6 +2347,277 @@
     <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2651,15 +2640,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +2657,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2676,7 +2665,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -2684,13 +2673,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
     </row>
@@ -2708,167 +2697,167 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3">
         <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2880,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,505 +2882,505 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="H1" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="29">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I5" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3428,86 +3417,86 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>178</v>
       </c>
       <c r="C2" s="43">
         <v>1</v>
       </c>
       <c r="D2" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="I2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="45"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>186</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
